--- a/ValueSet-mii-vs-diagnose-alphaid.xlsx
+++ b/ValueSet-mii-vs-diagnose-alphaid.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
